--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -10,33 +10,47 @@
     <sheet name="Dataset" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Study" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sample" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SamplePreparation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Instrument" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="CryoEMInstrument" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="XRayInstrument" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SAXSInstrument" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ExperimentRun" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="WorkflowRun" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="DataFile" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Image" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Image2D" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Image3D" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="FTIRImage" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="FluorescenceImage" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="OpticalImage" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="XRFImage" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="ImageFeature" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="OntologyTerm" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="MolecularComposition" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="BufferComposition" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="StorageConditions" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="CryoEMPreparation" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="XRayPreparation" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="SAXSPreparation" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="ExperimentalConditions" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="DataCollectionStrategy" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="QualityMetrics" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="ComputeResources" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="ProteinConstruct" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SamplePreparation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Instrument" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="CryoEMInstrument" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="XRayInstrument" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SAXSInstrument" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ExperimentRun" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="WorkflowRun" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="DataFile" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Image" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Image2D" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Image3D" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="FTIRImage" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="FluorescenceImage" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="OpticalImage" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="XRFImage" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="ImageFeature" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="OntologyTerm" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MolecularComposition" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="BufferComposition" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="StorageConditions" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="CryoEMPreparation" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="XRayPreparation" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="SAXSPreparation" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="ExperimentalConditions" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="DataCollectionStrategy" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="QualityMetrics" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="ComputeResources" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="ProteinAnnotation" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="FunctionalSite" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="StructuralFeature" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="LigandInteraction" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="ProteinProteinInteraction" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="MutationEffect" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="BiophysicalProperty" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="ConformationalEnsemble" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="ConformationalState" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="PostTranslationalModification" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="DatabaseCrossReference" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="EvolutionaryConservation" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="AggregatedProteinView" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,79 +518,90 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>workflow_code</t>
+          <t>experiment_code</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>workflow_type</t>
+          <t>sample_id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>experiment_id</t>
+          <t>instrument_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>processing_level</t>
+          <t>experiment_date</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>software_name</t>
+          <t>operator_id</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>software_version</t>
+          <t>technique</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>processing_parameters</t>
+          <t>experimental_method</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>compute_resources</t>
+          <t>experimental_conditions</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>started_at</t>
+          <t>data_collection_strategy</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>completed_at</t>
+          <t>quality_metrics</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>output_files</t>
+          <t>raw_data_location</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>processing_status</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"motion_correction,ctf_estimation,particle_picking,classification_2d,classification_3d,refinement,model_building,phasing,integration,scaling,saxs_analysis,em_2d_classification,mass_spec_deconvolution"</formula1>
+  <dataValidations count="3">
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"x_ray_diffraction,neutron_diffraction,electron_diffraction,fiber_diffraction"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2:L1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"raw,preprocessing,processing,completed,failed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -589,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,50 +625,160 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>file_name</t>
+          <t>workflow_code</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>file_path</t>
+          <t>workflow_type</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>file_format</t>
+          <t>experiment_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>file_size_bytes</t>
+          <t>processing_level</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>software_name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>creation_date</t>
+          <t>software_version</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>data_type</t>
+          <t>additional_software</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>processing_parameters</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>parameters_file_path</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>indexer_module</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>integrator_module</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>scaler_module</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>outlier_rejection_method</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>phasing_method</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>search_model_pdb_id</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>tls_used</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ncs_used</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>restraints_other</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ligands_cofactors</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>number_of_waters</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>refinement_resolution_a</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>deposited_to_pdb</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pdb_id</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>validation_report_path</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>processing_notes</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>compute_resources</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>started_at</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>completed_at</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>output_files</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -651,11 +786,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,ascii,thermo_raw,zip"</formula1>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"motion_correction,ctf_estimation,particle_picking,classification_2d,classification_3d,refinement,model_building,phasing,integration,scaling,saxs_analysis,em_2d_classification,mass_spec_deconvolution"</formula1>
     </dataValidation>
-    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data"</formula1>
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"molecular_replacement,sad,mad,sir,mir,siras,miras,fragile_mr"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -684,6 +819,85 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>file_path</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>file_format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>file_size_bytes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>checksum</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>creation_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>data_type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,ascii,thermo_raw,zip"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>acquisition_date</t>
         </is>
       </c>
@@ -733,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -814,7 +1028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1006,7 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1248,7 +1462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1374,7 +1588,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>protein_constructs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sample_preparations</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>instrument_runs</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>workflow_runs</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>data_files</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>images</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>aggregated_protein_views</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1405,73 +1695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sample_preparations</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>instrument_runs</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>workflow_runs</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>data_files</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>images</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1512,47 +1736,6 @@
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>modifications</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1580,17 +1763,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>sequences</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>modifications</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>additives</t>
+          <t>ligands</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -1605,6 +1788,47 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>components</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>additives</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1655,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,13 +1958,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,40 +1975,120 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>protein_concentration_mg_per_ml</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>protein_buffer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>additives</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>crystallization_method</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>screen_name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>temperature_c</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>drop_ratio_protein_to_reservoir</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>drop_volume_nl</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>reservoir_volume_ul</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>seeding_type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>seed_stock_dilution</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>initial_hit_condition</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>optimization_strategy</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>optimized_condition</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>crystallization_conditions</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>crystal_size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>crystal_size_um</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>cryoprotectant</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>cryoprotectant_concentration</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>soak_compound</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>soak_conditions</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
         <is>
           <t>mounting_method</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>flash_cooling_method</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crystal_notes</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1792,15 +2096,15 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,microbatch,dialysis,free_interface_diffusion"</formula1>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1907,13 +2211,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1948,6 +2252,71 @@
         </is>
       </c>
       <c r="F1" t="inlineStr">
+        <is>
+          <t>wavelength_a</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>detector_distance_mm</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>beam_center_x_px</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>beam_center_y_px</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>beam_size_um</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>flux_photons_per_s</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>transmission_percent</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>attenuator</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>temperature_k</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oscillation_per_image_deg</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>total_rotation_deg</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>strategy_notes</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1963,13 +2332,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,92 +2349,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>sample_code</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>completeness</t>
+          <t>sample_type</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>signal_to_noise</t>
+          <t>molecular_composition</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>r_factor</t>
+          <t>molecular_weight</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>i_zero</t>
+          <t>concentration</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>rg</t>
+          <t>concentration_unit</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sample_code</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sample_type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>molecular_composition</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>molecular_weight</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>concentration</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>concentration_unit</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>buffer_composition</t>
         </is>
       </c>
@@ -2111,15 +2424,65 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>functional_sites</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>structural_features</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>protein_interactions</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ligand_interactions</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>mutation_effects</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ptm_annotations</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>biophysical_properties</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>evolutionary_conservation</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>conformational_ensemble</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>database_cross_references</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2144,6 +2507,192 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AG1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>resolution_high_shell_a</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution_low_a</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>completeness</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>completeness_high_res_shell_percent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>signal_to_noise</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>mean_i_over_sigma_i</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>space_group</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>unit_cell_a</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>unit_cell_b</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>unit_cell_c</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>unit_cell_alpha</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>unit_cell_beta</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>unit_cell_gamma</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>multiplicity</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cc_half</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>r_merge</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>r_pim</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>wilson_b_factor_a2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>anomalous_used</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>anom_corr</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>anom_sig_ano</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>r_work</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>r_free</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>ramachandran_favored_percent</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>ramachandran_outliers_percent</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>clashscore</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>molprobity_score</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>average_b_factor_a2</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>i_zero</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>r_factor</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2184,7 +2733,1062 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>site_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>site_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>residues</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ligand_interactions</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>conservation_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>functional_importance</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>go_terms</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ec_number</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>secondary_structure</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>solvent_accessibility</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>backbone_flexibility</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>disorder_probability</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>conformational_state</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>structural_motif</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>domain_assignment</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>domain_id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"alpha_helix,beta_sheet,beta_strand,turn,coil,disordered_region,transmembrane_helix,signal_peptide,transit_peptide,domain,repeat,zinc_finger,zinc_binding,coiled_coil,motif,cavity,channel,pore,hinge,linker"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"helix,sheet,turn,coil,helix_310,helix_pi,bend,bridge"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"open,closed,intermediate,active,inactive,apo,holo,substrate_bound,product_bound,inhibitor_bound,partially_open,partially_closed,disordered"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ligand_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ligand_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ligand_smiles</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>binding_affinity</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>binding_affinity_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>binding_affinity_unit</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>interaction_type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>binding_site_residues</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_cofactor</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_drug_like</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>druggability_score</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>interaction_distance</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"kd,ki,ic50,ec50,ka,km"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"molar,millimolar,micromolar,nanomolar,picomolar"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"covalent,hydrogen_bond,ionic,van_der_waals,hydrophobic,aromatic,pi_stacking,cation_pi,metal_coordination,disulfide"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partner_protein_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>partner_chain_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>interface_residues</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>partner_interface_residues</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>interface_area</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>binding_energy</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dissociation_constant</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>complex_stability</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>biological_assembly</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>interaction_evidence</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"stable,transient,weak,strong,obligate,non_obligate"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,homology,coexpression,colocalization,genetic,physical,functional"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>mutation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mutation_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>effect_on_stability</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>delta_delta_g</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>effect_on_function</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>functional_impact_description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>disease_association</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>omim_id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>clinical_significance</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>allele_frequency</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"missense,nonsense,frameshift,deletion,insertion,duplication,substitution"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"stabilizing,destabilizing,neutral,highly_stabilizing,highly_destabilizing"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"loss_of_function,gain_of_function,altered_function,no_effect,partial_loss,enhanced_function"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"pathogenic,likely_pathogenic,benign,likely_benign,uncertain_significance"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>property_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>measurement_conditions</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ionic_strength</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>experimental_method</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"melting_temperature,stability,folding_rate,unfolding_rate,aggregation_propensity,solubility,hydrophobicity,isoelectric_point,extinction_coefficient,molecular_weight,diffusion_coefficient,sedimentation_coefficient,radius_of_gyration,hydrodynamic_radius"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"differential_scanning_calorimetry,isothermal_titration_calorimetry,circular_dichroism,fluorescence_spectroscopy,surface_plasmon_resonance,dynamic_light_scattering,analytical_ultracentrifugation,nuclear_magnetic_resonance,mass_spectrometry"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>conformational_states</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>clustering_method</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>rmsd_threshold</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>transition_pathways</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>energy_landscape</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>principal_motions</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>construct_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>uniprot_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>gene_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ncbi_taxid</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>sequence_length_aa</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>construct_description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>gene_synthesis_provider</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>codon_optimization_organism</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>vector_backbone</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>vector_name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>promoter</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>tag_nterm</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>tag_cterm</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>cleavage_site</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>signal_peptide</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>selectable_marker</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>cloning_method</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>insert_boundaries</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>sequence_file_path</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>sequence_verified_by</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>verification_notes</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2201,37 +3805,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>preparation_type</t>
+          <t>state_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sample_id</t>
+          <t>state_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>preparation_date</t>
+          <t>pdb_entries</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>operator_id</t>
+          <t>population</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>protocol_description</t>
+          <t>free_energy</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>rmsd_from_reference</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>characteristic_features</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -2241,16 +3845,690 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>modification_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>modified_residue</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>modification_group</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mass_shift</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>functional_effect</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>regulatory_role</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>enzyme</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>removal_enzyme</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,sans,protein_expression,protein_purification,negative_stain"</formula1>
+      <formula1>"phosphorylation,acetylation,methylation,ubiquitination,sumoylation,glycosylation,palmitoylation,myristoylation,prenylation,nitrosylation,oxidation,hydroxylation,proteolysis,deamidation,adp_ribosylation"</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>database_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>database_url</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>last_updated</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"uniprot,pdb,pfam,cath,scop,interpro,chembl,chebi,pubchem,drugbank,omim,clinvar,cosmic,gnomad,intact,string,biogrid,reactome,kegg,go"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>conservation_score</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>conserved_residues</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>variable_residues</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>conservation_method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>alignment_depth</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>taxonomic_range</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>coevolved_residues</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uniprot_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>protein_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>organism</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>organism_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pdb_entries</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>functional_sites</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>structural_features</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>protein_interactions</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ligand_interactions</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>mutations</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ptms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>biophysical_properties</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>conformational_ensemble</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>evolutionary_conservation</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>cross_references</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>preparation_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>preparation_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>operator_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>protocol_description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>expression_system</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>host_strain_or_cell_line</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>culture_volume_l</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>antibiotic_selection</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>growth_temperature_c</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>induction_agent</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inducer_concentration</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>induction_temperature_c</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>induction_time_h</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>od600_at_induction</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>harvest_timepoint</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>lysis_method</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>protease_inhibitors</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>purification_steps</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>affinity_type</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>affinity_column</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>lysis_buffer</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>wash_buffer</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>elution_buffer</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>tag_removal</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>protease</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>protease_ratio</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>cleavage_time_h</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>cleavage_temperature_c</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>second_affinity_reverse</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>iex_column</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>hic_column</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>sec_column</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>sec_buffer</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>concentration_method</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>final_buffer</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>final_concentration_mg_per_ml</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>yield_mg</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>purity_by_sds_page_percent</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>aggregation_assessment</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>aliquoting</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"cryo_em,xray_crystallography,saxs,sans,protein_expression,protein_purification,negative_stain"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"bacteria,yeast,insect,mammalian,cell_free"</formula1>
+    </dataValidation>
+    <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"affinity_ni_nta,affinity_co_nta,affinity_strep,affinity_mbp,affinity_gst,tag_cleavage,ion_exchange,hydrophobic_interaction,size_exclusion,dialysis"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2316,7 +4594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2425,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2532,102 +4810,6 @@
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"operational,maintenance,offline,commissioning"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>q_range_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>q_range_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>detector_distance_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>detector_distance_max</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>sample_changer_capacity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>temperature_control_range</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>instrument_code</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>installation_date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>current_status</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="K2:K1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2652,57 +4834,57 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>experiment_code</t>
+          <t>q_range_min</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sample_id</t>
+          <t>q_range_max</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>instrument_id</t>
+          <t>detector_distance_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>experiment_date</t>
+          <t>detector_distance_max</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>operator_id</t>
+          <t>sample_changer_capacity</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>temperature_control_range</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>experimental_conditions</t>
+          <t>instrument_code</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>data_collection_strategy</t>
+          <t>manufacturer</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>quality_metrics</t>
+          <t>model</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>raw_data_location</t>
+          <t>installation_date</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>processing_status</t>
+          <t>current_status</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -2722,12 +4904,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation sqref="K2:K1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"raw,preprocessing,processing,completed,failed"</formula1>
+      <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -45,12 +45,13 @@
     <sheet name="BufferComposition" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="StorageConditions" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="CryoEMPreparation" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="XRayPreparation" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="SAXSPreparation" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="ExperimentalConditions" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="DataCollectionStrategy" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="QualityMetrics" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="ComputeResources" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="CrystallizationConditions" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="XRayPreparation" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="SAXSPreparation" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="ExperimentalConditions" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="DataCollectionStrategy" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="QualityMetrics" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="ComputeResources" sheetId="45" state="visible" r:id="rId45"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,15 +1233,45 @@
       </c>
       <c r="Z1" t="inlineStr">
         <is>
+          <t>protein_name</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>mutations</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>expression_system</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>ligand</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1953,7 +1984,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"direct_electron,ccd,cmos,hybrid_pixel"</formula1>
+      <formula1>"direct_electron,ccd,cmos,hybrid_pixel,eiger,pilatus,rayonix,adsc,mar"</formula1>
     </dataValidation>
     <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
@@ -1969,7 +2000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1985,91 +2016,104 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>detector_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>beamline_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>energy_min</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>energy_max</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>beam_size_min</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>beam_size_max</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>flux_density</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>monochromator_type</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>goniometer_type</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>crystal_cooling_capability</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>instrument_code</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
     </dataValidation>
-    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"direct_electron,ccd,cmos,hybrid_pixel,eiger,pilatus,rayonix,adsc,mar"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2179,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,15 +2294,70 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>wavelength</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>oscillation_angle</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>start_angle</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>number_of_images</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>beam_center_x</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>beam_center_y</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>detector_distance</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pixel_size_x</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size_y</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>total_rotation</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamline</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2286,7 +2385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:BC1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2417,40 +2516,155 @@
       </c>
       <c r="Y1" t="inlineStr">
         <is>
+          <t>space_group</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>unit_cell_a</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>unit_cell_b</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>unit_cell_c</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>unit_cell_alpha</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>unit_cell_beta</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>unit_cell_gamma</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>resolution_high</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>resolution_low</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>rmerge</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>rpim</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>cc_half</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>completeness_percent</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>i_over_sigma</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>wilson_b_factor</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>multiplicity</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>rwork</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>rfree</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>rmsd_bonds</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>rmsd_angles</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>ramachandran_favored</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>ramachandran_outliers</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>clashscore</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
           <t>processing_notes</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>compute_resources</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>started_at</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>completed_at</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>output_files</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2538,7 +2752,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,ascii,thermo_raw,zip"</formula1>
+      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,cbf_zst,img,h5,ascii,thermo_raw,zip,gz"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data"</formula1>
@@ -3705,7 +3919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3716,120 +3930,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>protein_concentration_mg_per_ml</t>
+          <t>method</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>protein_buffer</t>
+          <t>crystallization_conditions</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>additives</t>
+          <t>drop_volume</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>crystallization_method</t>
+          <t>protein_concentration</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>crystal_size_um</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cryo_protectant</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>crystal_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>screen_name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>temperature_c</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>drop_ratio_protein_to_reservoir</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>drop_volume_nl</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>reservoir_volume_ul</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>seeding_type</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>seed_stock_dilution</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>initial_hit_condition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>optimization_strategy</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>optimized_condition</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>crystallization_conditions</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>crystal_size_um</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>cryoprotectant</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cryoprotectant_concentration</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>soak_compound</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>soak_conditions</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>mounting_method</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>flash_cooling_method</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>crystal_notes</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3837,7 +4001,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3948,6 +4112,162 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>protein_concentration_mg_per_ml</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>protein_buffer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>additives</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>crystallization_method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>crystallization_conditions</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>screen_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_c</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>drop_ratio_protein_to_reservoir</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>drop_volume_nl</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>reservoir_volume_ul</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>seeding_type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>seed_stock_dilution</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>initial_hit_condition</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>optimization_strategy</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>optimized_condition</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>crystal_size_um</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>cryoprotectant</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>cryoprotectant_concentration</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>soak_compound</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>soak_conditions</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>mounting_method</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>flash_cooling_method</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crystal_notes</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>loop_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>mounting_temperature</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3993,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4049,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4170,7 +4490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4356,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -35,23 +35,30 @@
     <sheet name="Image" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="Image2D" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Image3D" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="FTIRImage" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="FluorescenceImage" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="OpticalImage" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="XRFImage" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="ImageFeature" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="OntologyTerm" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="MolecularComposition" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="BufferComposition" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="StorageConditions" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="CryoEMPreparation" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="CrystallizationConditions" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="XRayPreparation" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="SAXSPreparation" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="ExperimentalConditions" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="DataCollectionStrategy" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="QualityMetrics" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="ComputeResources" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Movie" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Micrograph" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="FTIRImage" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="FluorescenceImage" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="OpticalImage" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="XRFImage" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="ImageFeature" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="OntologyTerm" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="MolecularComposition" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="BufferComposition" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="StorageConditions" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="CryoEMPreparation" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="CrystallizationConditions" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="XRayPreparation" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="SAXSPreparation" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="ExperimentalConditions" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="DataCollectionStrategy" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="QualityMetrics" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="ComputeResources" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="MotionCorrectionParameters" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="CTFEstimationParameters" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="ParticlePickingParameters" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="RefinementParameters" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="FSCCurve" sheetId="52" state="visible" r:id="rId52"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1891,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,40 +1949,125 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>cs</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>c2_aperture</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>objective_aperture</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>phase_plate_type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>energy_filter_present</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>energy_filter_make</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter_model</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>energy_filter_slit_width</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>detector_position</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>pixel_size_physical</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>microscope_software_version</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>spotsize</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>gunlens</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>imaging_mode</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>tem_beam_diameter</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>instrument_code</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1986,7 +2078,7 @@
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"direct_electron,ccd,cmos,hybrid_pixel,eiger,pilatus,rayonix,adsc,mar"</formula1>
     </dataValidation>
-    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AD2:AD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2223,7 +2315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,70 +2386,170 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>magnification</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>calibrated_pixel_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>camera_binning</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>exposure_time_per_frame</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>total_exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>total_dose</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>dose_rate</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>defocus_target</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>defocus_range_min</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>defocus_range_max</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>defocus_range_increment</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>astigmatism_target</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>coma</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>stage_tilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>autoloader_slot</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>shots_per_hole</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>holes_per_group</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>acquisition_software</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>acquisition_software_version</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
           <t>wavelength</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>oscillation_angle</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>start_angle</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>number_of_images</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>beam_center_x</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>beam_center_y</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>detector_distance</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>pixel_size_x</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>pixel_size_y</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>total_rotation</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>beamline</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2385,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,30 +2843,52 @@
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
+          <t>motion_correction_params</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>ctf_estimation_params</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>particle_picking_params</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>refinement_params</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>fsc_curve</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
           <t>output_files</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"motion_correction,ctf_estimation,particle_picking,classification_2d,classification_3d,refinement,model_building,phasing,integration,scaling,saxs_analysis,em_2d_classification,mass_spec_deconvolution"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"molecular_replacement,sad,mad,sir,mir,siras,miras,fragile_mr"</formula1>
     </dataValidation>
@@ -2689,7 +2903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2735,15 +2949,30 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>storage_uri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>related_entity</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>file_role</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2752,10 +2981,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,cbf_zst,img,h5,ascii,thermo_raw,zip,gz"</formula1>
+      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,cbf_zst,img,h5,ascii,thermo_raw,zip,mrcs,eer,cs,json,csv,ccp4,gz"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data"</formula1>
+      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data,movie,motion_corrected,ctf_estimation,particle_coordinates,class_averages,fsc_curve,map_half,validation_report"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3006,7 +3235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3017,85 +3246,135 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>wavenumber_min</t>
+          <t>frames</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>wavenumber_max</t>
+          <t>super_resolution</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>spectral_resolution</t>
+          <t>pixel_size_unbinned</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>number_of_scans</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>apodization_function</t>
+          <t>stage_position_x</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>molecular_signatures</t>
+          <t>stage_position_y</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>background_correction</t>
+          <t>stage_position_z</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dose_per_frame</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>beam_shift_x</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>beam_shift_y</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ice_thickness_estimate</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>grid_square_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>hole_id</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>acquisition_group</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>file_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>acquisition_date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>dimensions_x</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>dimensions_y</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3257,6 +3536,223 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin_movie_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus_u</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defocus_v</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>astigmatism_angle</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>resolution_fit_limit</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ctf_quality_score</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>wavenumber_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>wavenumber_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>spectral_resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>number_of_scans</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>apodization_function</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>molecular_signatures</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>background_correction</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3493,7 +3989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3619,7 +4115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3650,7 +4146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3701,7 +4197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3742,7 +4238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3783,7 +4279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3828,181 +4324,6 @@
   <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"celsius,kelvin,fahrenheit"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grid_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>support_film</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>hole_size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vitrification_method</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>blot_time</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>blot_force</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>humidity_percentage</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>chamber_temperature</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>plasma_treatment</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"c_flat,quantifoil,lacey_carbon,ultrathin_carbon,gold"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"plunge_freezing,high_pressure_freezing,slam_freezing"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>crystallization_conditions</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>drop_volume</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>protein_concentration</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>crystal_size_um</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cryo_protectant</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>crystal_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>screen_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>temperature_c</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>drop_ratio_protein_to_reservoir</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>reservoir_volume_ul</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>seeding_type</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>seed_stock_dilution</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4112,6 +4433,246 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grid_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>support_film</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>hole_size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification_method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>blot_time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>blot_force</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>humidity_percentage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>chamber_temperature</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>grid_material</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>glow_discharge_applied</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>glow_discharge_time</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>glow_discharge_current</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>glow_discharge_atmosphere</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>glow_discharge_pressure</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>vitrification_instrument</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>blot_number</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>wait_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>blotter_height</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>blotter_setting</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>sample_applied_volume</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ethane_temperature</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>plasma_treatment</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"c_flat,quantifoil,lacey_carbon,ultrathin_carbon,gold"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"plunge_freezing,high_pressure_freezing,slam_freezing"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>crystallization_conditions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>drop_volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>protein_concentration</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>crystal_size_um</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cryo_protectant</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>crystal_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>screen_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_c</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>drop_ratio_protein_to_reservoir</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>reservoir_volume_ul</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>seeding_type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>seed_stock_dilution</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4262,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4313,7 +4874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4369,7 +4930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4490,7 +5051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4676,7 +5237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4712,6 +5273,128 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>patch_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>binning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dose_weighting</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>bfactor_dose_weighting</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>anisotropic_correction</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>frame_grouping</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>output_binning</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>drift_total</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>defocus_search_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus_search_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defocus_step</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amplitude_contrast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>voltage</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -4865,6 +5548,164 @@
       <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>picking_method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>power_score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ncc_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>model_file</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>symmetry</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gold_standard</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>split_strategy</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>resolution_0_143</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>resolution_0_5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>map_sharpening_bfactor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>resolution_angstrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fsc_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -35,23 +35,30 @@
     <sheet name="Image" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="Image2D" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Image3D" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="FTIRImage" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="FluorescenceImage" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="OpticalImage" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="XRFImage" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="ImageFeature" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="OntologyTerm" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="MolecularComposition" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="BufferComposition" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="StorageConditions" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="CryoEMPreparation" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="CrystallizationConditions" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="XRayPreparation" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="SAXSPreparation" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="ExperimentalConditions" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="DataCollectionStrategy" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="QualityMetrics" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="ComputeResources" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Movie" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Micrograph" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="FTIRImage" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="FluorescenceImage" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="OpticalImage" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="XRFImage" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="ImageFeature" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="OntologyTerm" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="MolecularComposition" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="BufferComposition" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="StorageConditions" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="CryoEMPreparation" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="CrystallizationConditions" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="XRayPreparation" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="SAXSPreparation" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="ExperimentalConditions" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="DataCollectionStrategy" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="QualityMetrics" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="ComputeResources" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="MotionCorrectionParameters" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="CTFEstimationParameters" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="ParticlePickingParameters" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="RefinementParameters" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="FSCCurve" sheetId="52" state="visible" r:id="rId52"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1891,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,51 +1949,139 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>cs</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>c2_aperture</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>objective_aperture</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>phase_plate_type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>energy_filter_present</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>energy_filter_make</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter_model</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>energy_filter_slit_width</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>detector_position</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>pixel_size_physical</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>microscope_software_version</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>spotsize</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>gunlens</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>imaging_mode</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>tem_beam_diameter</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>instrument_code</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"direct_electron,ccd,cmos,hybrid_pixel,eiger,pilatus,rayonix,adsc,mar"</formula1>
     </dataValidation>
-    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="X2:X1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"EFTEM,TEM,STEM"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AD2:AD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2223,7 +2318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,70 +2389,170 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>magnification</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>calibrated_pixel_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>camera_binning</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>exposure_time_per_frame</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>total_exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>total_dose</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>dose_rate</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>defocus_target</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>defocus_range_min</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>defocus_range_max</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>defocus_range_increment</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>astigmatism_target</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>coma</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>stage_tilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>autoloader_slot</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>shots_per_hole</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>holes_per_group</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>acquisition_software</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>acquisition_software_version</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
           <t>wavelength</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>oscillation_angle</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>start_angle</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>number_of_images</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>beam_center_x</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>beam_center_y</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>detector_distance</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>pixel_size_x</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>pixel_size_y</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>total_rotation</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>beamline</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2385,7 +2580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,30 +2846,52 @@
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
+          <t>motion_correction_params</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>ctf_estimation_params</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>particle_picking_params</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>refinement_params</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>fsc_curve</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
           <t>output_files</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"motion_correction,ctf_estimation,particle_picking,classification_2d,classification_3d,refinement,model_building,phasing,integration,scaling,saxs_analysis,em_2d_classification,mass_spec_deconvolution"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"molecular_replacement,sad,mad,sir,mir,siras,miras,fragile_mr"</formula1>
     </dataValidation>
@@ -2689,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2735,15 +2952,30 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>storage_uri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>related_entity</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>file_role</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2752,10 +2984,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,cbf_zst,img,h5,ascii,thermo_raw,zip,gz"</formula1>
+      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,cbf_zst,img,h5,ascii,thermo_raw,zip,mrcs,eer,cs,json,csv,ccp4,gz"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data"</formula1>
+      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data,movie,motion_corrected,ctf_estimation,particle_coordinates,class_averages,fsc_curve,map_half,validation_report"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3006,7 +3238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3017,85 +3249,135 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>wavenumber_min</t>
+          <t>frames</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>wavenumber_max</t>
+          <t>super_resolution</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>spectral_resolution</t>
+          <t>pixel_size_unbinned</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>number_of_scans</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>apodization_function</t>
+          <t>stage_position_x</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>molecular_signatures</t>
+          <t>stage_position_y</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>background_correction</t>
+          <t>stage_position_z</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dose_per_frame</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>beam_shift_x</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>beam_shift_y</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ice_thickness_estimate</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>grid_square_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>hole_id</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>acquisition_group</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>file_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>acquisition_date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>dimensions_x</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>dimensions_y</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3257,6 +3539,223 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>origin_movie_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>defocus_u</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>defocus_v</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>astigmatism_angle</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>resolution_fit_limit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ctf_quality_score</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>wavenumber_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>wavenumber_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>spectral_resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>number_of_scans</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>apodization_function</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>molecular_signatures</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>background_correction</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3493,7 +3992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3619,7 +4118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3650,7 +4149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3701,7 +4200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3742,7 +4241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3783,7 +4282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3828,181 +4327,6 @@
   <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"celsius,kelvin,fahrenheit"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grid_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>support_film</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>hole_size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vitrification_method</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>blot_time</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>blot_force</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>humidity_percentage</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>chamber_temperature</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>plasma_treatment</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"c_flat,quantifoil,lacey_carbon,ultrathin_carbon,gold"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"plunge_freezing,high_pressure_freezing,slam_freezing"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>crystallization_conditions</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>drop_volume</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>protein_concentration</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>crystal_size_um</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cryo_protectant</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>crystal_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>screen_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>temperature_c</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>drop_ratio_protein_to_reservoir</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>reservoir_volume_ul</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>seeding_type</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>seed_stock_dilution</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4112,6 +4436,246 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grid_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>support_film</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>hole_size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification_method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>blot_time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>blot_force</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>humidity_percentage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>chamber_temperature</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>grid_material</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>glow_discharge_applied</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>glow_discharge_time</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>glow_discharge_current</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>glow_discharge_atmosphere</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>glow_discharge_pressure</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>vitrification_instrument</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>blot_number</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>wait_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>blotter_height</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>blotter_setting</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>sample_applied_volume</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ethane_temperature</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>plasma_treatment</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"c_flat,quantifoil,lacey_carbon,ultrathin_carbon,gold"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"plunge_freezing,high_pressure_freezing,slam_freezing"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>crystallization_conditions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>drop_volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>protein_concentration</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>crystal_size_um</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cryo_protectant</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>crystal_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>screen_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_c</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>drop_ratio_protein_to_reservoir</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>reservoir_volume_ul</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>seeding_type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>seed_stock_dilution</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4262,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4313,7 +4877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4369,7 +4933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4490,7 +5054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4676,7 +5240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4712,6 +5276,128 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>patch_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>binning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dose_weighting</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>bfactor_dose_weighting</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>anisotropic_correction</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>frame_grouping</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>output_binning</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>drift_total</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>defocus_search_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus_search_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defocus_step</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amplitude_contrast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>cs_used_in_estimation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>voltage_used_in_estimation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -4865,6 +5551,164 @@
       <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>picking_method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>power_score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ncc_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>model_file</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>symmetry</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gold_standard</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>split_strategy</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>resolution_0_143</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>resolution_0_5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>map_sharpening_bfactor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>resolution_angstrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fsc_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -1891,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,76 +1917,94 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>detector_type</t>
+          <t>detector_technology</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>detector_manufacturer</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>detector_model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>detector_position</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>detector_dimensions</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>pixel_size_min</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>pixel_size_max</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pixel_size_physical_um</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>autoloader_capacity</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>instrument_code</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"direct_electron,ccd,cmos,hybrid_pixel,eiger,pilatus,rayonix,adsc,mar"</formula1>
+      <formula1>"direct_electron_detector,ccd,cmos,hybrid_photon_counting,scintillator_coupled,imaging_plate,film"</formula1>
     </dataValidation>
-    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"counting,integrating,super_resolution,linear,correlated_double_sampling"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2000,7 +2018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2016,90 +2034,100 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>detector_type</t>
+          <t>detector_technology</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>detector_manufacturer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>detector_model</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>beamline_id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>energy_min</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>energy_max</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>beam_size_min</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>beam_size_max</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>flux_density</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>monochromator_type</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>goniometer_type</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>crystal_cooling_capability</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>instrument_code</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2111,9 +2139,9 @@
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"direct_electron,ccd,cmos,hybrid_pixel,eiger,pilatus,rayonix,adsc,mar"</formula1>
+      <formula1>"direct_electron_detector,ccd,cmos,hybrid_photon_counting,scintillator_coupled,imaging_plate,film"</formula1>
     </dataValidation>
-    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="R2:R1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3499,7 +3527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,84 +3563,92 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>detector_type</t>
+          <t>detector_technology</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>detector_model</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>flux</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>calibration_standard</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>defocus</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>astigmatism</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>file_name</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>acquisition_date</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>dimensions_x</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>dimensions_y</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"direct_electron_detector,ccd,cmos,hybrid_photon_counting,scintillator_coupled,imaging_plate,film"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4375,7 +4411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4416,74 +4452,82 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>detector</t>
+          <t>detector_mode</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>pixel_size_calibrated</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>detector_distance_mm</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>beam_center_x_px</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>beam_center_y_px</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>beam_size_um</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>flux_photons_per_s</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>transmission_percent</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>attenuator</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>temperature_k</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>oscillation_per_image_deg</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>total_rotation_deg</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>strategy_notes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"counting,super_resolution,continuous,oscillation,still,batch,sec_saxs,single_particle"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"counting,integrating,super_resolution,linear,correlated_double_sampling"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -35,23 +35,30 @@
     <sheet name="Image" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="Image2D" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Image3D" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="FTIRImage" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="FluorescenceImage" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="OpticalImage" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="XRFImage" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="ImageFeature" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="OntologyTerm" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="MolecularComposition" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="BufferComposition" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="StorageConditions" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="CryoEMPreparation" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="CrystallizationConditions" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="XRayPreparation" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="SAXSPreparation" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="ExperimentalConditions" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="DataCollectionStrategy" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="QualityMetrics" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="ComputeResources" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Movie" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Micrograph" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="FTIRImage" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="FluorescenceImage" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="OpticalImage" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="XRFImage" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="ImageFeature" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="OntologyTerm" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="MolecularComposition" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="BufferComposition" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="StorageConditions" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="CryoEMPreparation" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="CrystallizationConditions" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="XRayPreparation" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="SAXSPreparation" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="ExperimentalConditions" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="DataCollectionStrategy" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="QualityMetrics" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="ComputeResources" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="MotionCorrectionParameters" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="CTFEstimationParameters" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="ParticlePickingParameters" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="RefinementParameters" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="FSCCurve" sheetId="52" state="visible" r:id="rId52"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1891,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,40 +1964,115 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>cs</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>c2_aperture</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>objective_aperture</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>phase_plate_type</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>energy_filter_present</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>energy_filter_make</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>energy_filter_model</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>energy_filter_slit_width</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pixel_size_physical</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>microscope_software_version</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>spotsize</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>gunlens</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imaging_mode</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>tem_beam_diameter</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>instrument_code</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2004,7 +2086,7 @@
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"counting,integrating,super_resolution,linear,correlated_double_sampling"</formula1>
     </dataValidation>
-    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AE2:AE1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2251,7 +2333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2322,70 +2404,170 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>magnification</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>calibrated_pixel_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>camera_binning</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>exposure_time_per_frame</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>total_exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>total_dose</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>dose_rate</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>defocus_target</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>defocus_range_min</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>defocus_range_max</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>defocus_range_increment</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>astigmatism_target</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>coma</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>stage_tilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>autoloader_slot</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>shots_per_hole</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>holes_per_group</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>acquisition_software</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>acquisition_software_version</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
           <t>wavelength</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>oscillation_angle</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>start_angle</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>number_of_images</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>beam_center_x</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>beam_center_y</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>detector_distance</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>pixel_size_x</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>pixel_size_y</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>total_rotation</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>beamline</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2413,7 +2595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2679,30 +2861,52 @@
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
+          <t>motion_correction_params</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>ctf_estimation_params</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>particle_picking_params</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>refinement_params</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>fsc_curve</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
           <t>output_files</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"motion_correction,ctf_estimation,particle_picking,classification_2d,classification_3d,refinement,model_building,phasing,integration,scaling,saxs_analysis,em_2d_classification,mass_spec_deconvolution"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"molecular_replacement,sad,mad,sir,mir,siras,miras,fragile_mr"</formula1>
     </dataValidation>
@@ -2717,7 +2921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2763,15 +2967,30 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>storage_uri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>related_entity</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>file_role</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2780,10 +2999,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,cbf_zst,img,h5,ascii,thermo_raw,zip,gz"</formula1>
+      <formula1>"mrc,tiff,hdf5,star,pdb,mmcif,mtz,cbf,cbf_zst,img,h5,ascii,thermo_raw,zip,mrcs,eer,cs,json,csv,ccp4,gz"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data"</formula1>
+      <formula1>"micrograph,diffraction,scattering,particles,volume,model,metadata,raw_data,processed_data,movie,motion_corrected,ctf_estimation,particle_coordinates,class_averages,fsc_curve,map_half,validation_report"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3034,7 +3253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,85 +3264,135 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>wavenumber_min</t>
+          <t>frames</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>wavenumber_max</t>
+          <t>super_resolution</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>spectral_resolution</t>
+          <t>pixel_size_unbinned</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>number_of_scans</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>apodization_function</t>
+          <t>stage_position_x</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>molecular_signatures</t>
+          <t>stage_position_y</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>background_correction</t>
+          <t>stage_position_z</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dose_per_frame</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>beam_shift_x</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>beam_shift_y</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ice_thickness_estimate</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>grid_square_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>hole_id</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>acquisition_group</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>file_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>acquisition_date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>dimensions_x</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>dimensions_y</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>dose</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3285,7 +3554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3296,105 +3565,90 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>excitation_wavelength</t>
+          <t>pixel_size</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>emission_wavelength</t>
+          <t>defocus</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>excitation_filter</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>emission_filter</t>
+          <t>origin_movie_id</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>fluorophore</t>
+          <t>defocus_u</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>channel_name</t>
+          <t>defocus_v</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>laser_power</t>
+          <t>astigmatism</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>pinhole_size</t>
+          <t>astigmatism_angle</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>quantum_yield</t>
+          <t>resolution_fit_limit</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>defocus</t>
+          <t>ctf_quality_score</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>astigmatism</t>
+          <t>file_name</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>file_name</t>
+          <t>acquisition_date</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>acquisition_date</t>
+          <t>dimensions_x</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>pixel_size</t>
+          <t>dimensions_y</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>dimensions_x</t>
+          <t>exposure_time</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>dimensions_y</t>
+          <t>id</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>exposure_time</t>
+          <t>title</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3411,7 +3665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3422,101 +3676,91 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>illumination_type</t>
+          <t>wavenumber_min</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>magnification</t>
+          <t>wavenumber_max</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>numerical_aperture</t>
+          <t>spectral_resolution</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>color_channels</t>
+          <t>number_of_scans</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>white_balance</t>
+          <t>apodization_function</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>contrast_method</t>
+          <t>molecular_signatures</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>defocus</t>
+          <t>background_correction</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>astigmatism</t>
+          <t>file_name</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>file_name</t>
+          <t>acquisition_date</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>acquisition_date</t>
+          <t>pixel_size</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>pixel_size</t>
+          <t>dimensions_x</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>dimensions_x</t>
+          <t>dimensions_y</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>dimensions_y</t>
+          <t>exposure_time</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>exposure_time</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>id</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>title</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"brightfield,darkfield,phase_contrast,dic,fluorescence,confocal,polarized,oblique"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3538,6 +3782,248 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>excitation_wavelength</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>emission_wavelength</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>excitation_filter</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>emission_filter</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>fluorophore</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>channel_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>laser_power</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pinhole_size</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>quantum_yield</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>illumination_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>magnification</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>numerical_aperture</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>color_channels</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>white_balance</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>contrast_method</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"brightfield,darkfield,phase_contrast,dic,fluorescence,confocal,polarized,oblique"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>beam_energy</t>
         </is>
       </c>
@@ -3655,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3686,7 +4172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3737,7 +4223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3778,7 +4264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3819,7 +4305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3864,181 +4350,6 @@
   <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"celsius,kelvin,fahrenheit"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grid_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>support_film</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>hole_size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vitrification_method</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>blot_time</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>blot_force</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>humidity_percentage</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>chamber_temperature</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>plasma_treatment</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"c_flat,quantifoil,lacey_carbon,ultrathin_carbon,gold"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"plunge_freezing,high_pressure_freezing,slam_freezing"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>crystallization_conditions</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>drop_volume</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>protein_concentration</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>crystal_size_um</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cryo_protectant</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>crystal_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>screen_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>temperature_c</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>drop_ratio_protein_to_reservoir</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>reservoir_volume_ul</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>seeding_type</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>seed_stock_dilution</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4148,6 +4459,246 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grid_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>support_film</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>hole_size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification_method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>blot_time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>blot_force</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>humidity_percentage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>chamber_temperature</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>grid_material</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>glow_discharge_applied</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>glow_discharge_time</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>glow_discharge_current</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>glow_discharge_atmosphere</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>glow_discharge_pressure</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>vitrification_instrument</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>blot_number</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>wait_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>blotter_height</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>blotter_setting</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>sample_applied_volume</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ethane_temperature</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>plasma_treatment</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"c_flat,quantifoil,lacey_carbon,ultrathin_carbon,gold"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"plunge_freezing,high_pressure_freezing,slam_freezing"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>crystallization_conditions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>drop_volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>protein_concentration</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>crystal_size_um</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cryo_protectant</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>crystal_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>screen_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_c</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>drop_ratio_protein_to_reservoir</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>reservoir_volume_ul</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>seeding_type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>seed_stock_dilution</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"vapor_diffusion_hanging,vapor_diffusion_sitting,batch,microbatch,lcp,dialysis,free_interface_diffusion"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,7 +4849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4349,7 +4900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4405,7 +4956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4534,7 +5085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4720,7 +5271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4756,6 +5307,128 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>patch_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>binning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dose_weighting</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>bfactor_dose_weighting</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>anisotropic_correction</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>frame_grouping</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>output_binning</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>drift_total</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>defocus_search_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus_search_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defocus_step</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amplitude_contrast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>cs_used_in_estimation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>voltage_used_in_estimation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -4909,6 +5582,164 @@
       <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>picking_method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>power_score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ncc_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>model_file</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>symmetry</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gold_standard</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>split_strategy</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>resolution_0_143</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>resolution_0_5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>map_sharpening_bfactor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>resolution_angstrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fsc_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -20,45 +20,46 @@
     <sheet name="DatabaseCrossReference" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="EvolutionaryConservation" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="AggregatedProteinView" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Dataset" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Study" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Sample" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="ProteinConstruct" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="SamplePreparation" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Instrument" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="CryoEMInstrument" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="XRayInstrument" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="SAXSInstrument" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="ExperimentRun" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="WorkflowRun" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="DataFile" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Image" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Image2D" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Image3D" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Movie" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Micrograph" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="FTIRImage" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="FluorescenceImage" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="OpticalImage" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="XRFImage" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="ImageFeature" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="OntologyTerm" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="MolecularComposition" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="BufferComposition" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="StorageConditions" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="CryoEMPreparation" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="CrystallizationConditions" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="XRayPreparation" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="SAXSPreparation" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="ExperimentalConditions" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="DataCollectionStrategy" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="QualityMetrics" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="ComputeResources" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="MotionCorrectionParameters" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="CTFEstimationParameters" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="ParticlePickingParameters" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="RefinementParameters" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="FSCCurve" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="MeasurementConditions" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Dataset" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Study" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Sample" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ProteinConstruct" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SamplePreparation" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Instrument" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="CryoEMInstrument" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="XRayInstrument" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="SAXSInstrument" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="ExperimentRun" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="WorkflowRun" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="DataFile" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Image" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Image2D" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Image3D" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Movie" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Micrograph" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="FTIRImage" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="FluorescenceImage" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="OpticalImage" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="XRFImage" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="ImageFeature" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="OntologyTerm" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="MolecularComposition" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="BufferComposition" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="StorageConditions" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="CryoEMPreparation" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="CrystallizationConditions" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="XRayPreparation" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="SAXSPreparation" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="ExperimentalConditions" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="DataCollectionStrategy" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="QualityMetrics" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="ComputeResources" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="MotionCorrectionParameters" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="CTFEstimationParameters" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="ParticlePickingParameters" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="RefinementParameters" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="FSCCurve" sheetId="53" state="visible" r:id="rId53"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -977,6 +978,62 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer_composition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ionic_strength</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1022,7 +1079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1297,7 +1354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1438,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1689,72 +1746,6 @@
     </dataValidation>
     <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"affinity_ni_nta,affinity_co_nta,affinity_strep,affinity_mbp,affinity_gst,tag_cleavage,ion_exchange,hydrophobic_interaction,size_exclusion,dialysis"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>instrument_code</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>installation_date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>current_status</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1898,6 +1889,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>instrument_code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>installation_date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>current_status</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"operational,maintenance,offline,commissioning"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2079,12 +2136,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"direct_electron_detector,ccd,cmos,hybrid_photon_counting,scintillator_coupled,imaging_plate,film"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"counting,integrating,super_resolution,linear,correlated_double_sampling"</formula1>
+    </dataValidation>
+    <dataValidation sqref="Y2:Y1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"EFTEM,TEM,STEM"</formula1>
     </dataValidation>
     <dataValidation sqref="AE2:AE1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
@@ -2094,7 +2154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2231,7 +2291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2327,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +2649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2915,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3009,7 +3069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3080,7 +3140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3161,7 +3221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3237,162 +3297,6 @@
         </is>
       </c>
       <c r="M1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>super_resolution</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>pixel_size_unbinned</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>stage_position_x</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>stage_position_y</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>stage_position_z</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>dose_per_frame</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>beam_shift_x</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>beam_shift_y</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>ice_thickness_estimate</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>grid_square_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>hole_id</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>acquisition_group</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>defocus</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>astigmatism</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>acquisition_date</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>dimensions_x</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>dimensions_y</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3554,6 +3458,162 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>super_resolution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pixel_size_unbinned</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>stage_position_x</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>stage_position_y</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>stage_position_z</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dose_per_frame</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>beam_shift_x</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>beam_shift_y</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ice_thickness_estimate</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>grid_square_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>hole_id</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>acquisition_group</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3565,62 +3625,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>origin_movie_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defocus_u</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>defocus_v</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>astigmatism_angle</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>resolution_fit_limit</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ctf_quality_score</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>origin_movie_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>defocus_u</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>defocus_v</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>astigmatism</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>astigmatism_angle</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>resolution_fit_limit</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ctf_quality_score</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>acquisition_date</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -3659,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3765,7 +3825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3891,7 +3951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4007,7 +4067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4141,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4172,7 +4232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4213,47 +4273,6 @@
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>modifications</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -4281,17 +4300,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>sequences</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>modifications</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>additives</t>
+          <t>ligands</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -4311,7 +4330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4322,36 +4341,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>temperature_unit</t>
+          <t>components</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>additives</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>atmosphere</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"celsius,kelvin,fahrenheit"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4459,6 +4468,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>temperature_unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>atmosphere</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"celsius,kelvin,fahrenheit"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4585,19 +4645,22 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"c_flat,quantifoil,lacey_carbon,ultrathin_carbon,gold"</formula1>
     </dataValidation>
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"plunge_freezing,high_pressure_freezing,slam_freezing"</formula1>
     </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"carbon,gold,graphene,silicon_nitride"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4693,7 +4756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4849,7 +4912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4900,7 +4963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4956,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5085,7 +5148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5271,7 +5334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5317,7 +5380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5373,62 +5436,6 @@
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>defocus_search_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>defocus_search_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>defocus_step</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>amplitude_contrast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>cs_used_in_estimation</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>voltage_used_in_estimation</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -5603,32 +5610,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>picking_method</t>
+          <t>defocus_search_min</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>box_size</t>
+          <t>defocus_search_max</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>threshold</t>
+          <t>defocus_step</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>power_score</t>
+          <t>amplitude_contrast</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ncc_score</t>
+          <t>cs_used_in_estimation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>model_file</t>
+          <t>voltage_used_in_estimation</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -5643,6 +5650,62 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>picking_method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>power_score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ncc_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>model_file</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5704,11 +5767,16 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,D2,D3,D4,D5,D6,D7,D8,D9,D10,T,O,I"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5903,7 +5971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5939,25 +6007,10 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>experimental_method</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>ph</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ionic_strength</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>experimental_method</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -5968,7 +6021,7 @@
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"melting_temperature,stability,folding_rate,unfolding_rate,aggregation_propensity,solubility,hydrophobicity,isoelectric_point,extinction_coefficient,molecular_weight,diffusion_coefficient,sedimentation_coefficient,radius_of_gyration,hydrodynamic_radius"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"differential_scanning_calorimetry,isothermal_titration_calorimetry,circular_dichroism,fluorescence_spectroscopy,surface_plasmon_resonance,dynamic_light_scattering,analytical_ultracentrifugation,nuclear_magnetic_resonance,mass_spectrometry"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -672,10 +672,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"phosphorylation,acetylation,methylation,ubiquitination,sumoylation,glycosylation,palmitoylation,myristoylation,prenylation,nitrosylation,oxidation,hydroxylation,proteolysis,deamidation,adp_ribosylation"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -4238,7 +4238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4249,30 +4249,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>label</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>definition</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ontology</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -30,36 +30,37 @@
     <sheet name="CryoEMInstrument" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="XRayInstrument" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="SAXSInstrument" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="ExperimentRun" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="WorkflowRun" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="DataFile" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Image" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Image2D" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Image3D" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Movie" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Micrograph" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="FTIRImage" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="FluorescenceImage" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="OpticalImage" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="XRFImage" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="ImageFeature" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="OntologyTerm" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="MolecularComposition" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="BufferComposition" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="StorageConditions" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="CryoEMPreparation" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="CrystallizationConditions" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="XRayPreparation" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="SAXSPreparation" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="ExperimentalConditions" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="DataCollectionStrategy" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="QualityMetrics" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="ComputeResources" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="MotionCorrectionParameters" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="CTFEstimationParameters" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="ParticlePickingParameters" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="RefinementParameters" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="FSCCurve" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="BeamlineInstrument" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="ExperimentRun" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="WorkflowRun" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="DataFile" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Image" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Image2D" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Image3D" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Movie" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Micrograph" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="FTIRImage" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="FluorescenceImage" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="OpticalImage" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="XRFImage" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="ImageFeature" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="OntologyTerm" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="MolecularComposition" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="BufferComposition" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="StorageConditions" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="CryoEMPreparation" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="CrystallizationConditions" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="XRayPreparation" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="SAXSPreparation" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="ExperimentalConditions" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="DataCollectionStrategy" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="QualityMetrics" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="ComputeResources" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="MotionCorrectionParameters" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="CTFEstimationParameters" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="ParticlePickingParameters" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="RefinementParameters" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="FSCCurve" sheetId="54" state="visible" r:id="rId54"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1886,7 +1887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1902,43 +1903,69 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>instrument_category</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>facility_ror</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>beamline_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"SYNCHROTRON_BEAMLINE,NEUTRON_BEAMLINE,XFEL_BEAMLINE,ELECTRON_MICROSCOPE,BENCHTOP_XRAY,OPTICAL_MICROSCOPE,SPECTROMETER"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"NSLS_II,ALS,SSRL,ESRF,DIAMOND,PHOTON_FACTORY,APS,SPRING8,PETRA_III,SOLEIL,AUSTRALIAN_SYNCHROTRON,EMSL,SNS,HFIR"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1952,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2098,42 +2125,62 @@
       </c>
       <c r="AB1" t="inlineStr">
         <is>
+          <t>instrument_category</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>facility_ror</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>beamline_id</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>installation_date</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>current_status</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"direct_electron_detector,ccd,cmos,hybrid_photon_counting,scintillator_coupled,imaging_plate,film"</formula1>
     </dataValidation>
@@ -2143,7 +2190,13 @@
     <dataValidation sqref="Y2:Y1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"EFTEM,TEM,STEM"</formula1>
     </dataValidation>
-    <dataValidation sqref="AE2:AE1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"SYNCHROTRON_BEAMLINE,NEUTRON_BEAMLINE,XFEL_BEAMLINE,ELECTRON_MICROSCOPE,BENCHTOP_XRAY,OPTICAL_MICROSCOPE,SPECTROMETER"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AC2:AC1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"NSLS_II,ALS,SSRL,ESRF,DIAMOND,PHOTON_FACTORY,APS,SPRING8,PETRA_III,SOLEIL,AUSTRALIAN_SYNCHROTRON,EMSL,SNS,HFIR"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AI2:AI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2152,6 +2205,286 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>source_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>detector_technology</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>detector_manufacturer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>detector_model</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>energy_min</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>energy_max</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>beam_size_min</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>beam_size_max</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>flux_density</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>monochromator_type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>goniometer_type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>crystal_cooling_capability</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>instrument_code</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>instrument_category</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>facility_ror</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>beamline_id</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>installation_date</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>current_status</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"direct_electron_detector,ccd,cmos,hybrid_photon_counting,scintillator_coupled,imaging_plate,film"</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"SYNCHROTRON_BEAMLINE,NEUTRON_BEAMLINE,XFEL_BEAMLINE,ELECTRON_MICROSCOPE,BENCHTOP_XRAY,OPTICAL_MICROSCOPE,SPECTROMETER"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"NSLS_II,ALS,SSRL,ESRF,DIAMOND,PHOTON_FACTORY,APS,SPRING8,PETRA_III,SOLEIL,AUSTRALIAN_SYNCHROTRON,EMSL,SNS,HFIR"</formula1>
+    </dataValidation>
+    <dataValidation sqref="U2:U1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"operational,maintenance,offline,commissioning"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>q_range_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>q_range_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>detector_distance_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>detector_distance_max</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>sample_changer_capacity</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>temperature_control_range</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>instrument_code</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>instrument_category</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>facility_ror</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>beamline_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>installation_date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>current_status</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"SYNCHROTRON_BEAMLINE,NEUTRON_BEAMLINE,XFEL_BEAMLINE,ELECTRON_MICROSCOPE,BENCHTOP_XRAY,OPTICAL_MICROSCOPE,SPECTROMETER"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"NSLS_II,ALS,SSRL,ESRF,DIAMOND,PHOTON_FACTORY,APS,SPRING8,PETRA_III,SOLEIL,AUSTRALIAN_SYNCHROTRON,EMSL,SNS,HFIR"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"operational,maintenance,offline,commissioning"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2168,72 +2501,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>techniques_supported</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>source_type</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>detector_technology</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>detector_manufacturer</t>
+          <t>energy_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>detector_model</t>
+          <t>energy_max</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>q_range_min</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>q_range_max</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>sample_changer_capacity</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>mail_in_service</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>instrument_code</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>instrument_category</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>facility_ror</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>beamline_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>energy_min</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>energy_max</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>beam_size_min</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>beam_size_max</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>flux_density</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>monochromator_type</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>goniometer_type</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>crystal_cooling_capability</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>instrument_code</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
@@ -2273,12 +2606,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
     </dataValidation>
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"direct_electron_detector,ccd,cmos,hybrid_photon_counting,scintillator_coupled,imaging_plate,film"</formula1>
+    <dataValidation sqref="K2:K1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"SYNCHROTRON_BEAMLINE,NEUTRON_BEAMLINE,XFEL_BEAMLINE,ELECTRON_MICROSCOPE,BENCHTOP_XRAY,OPTICAL_MICROSCOPE,SPECTROMETER"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2:L1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"NSLS_II,ALS,SSRL,ESRF,DIAMOND,PHOTON_FACTORY,APS,SPRING8,PETRA_III,SOLEIL,AUSTRALIAN_SYNCHROTRON,EMSL,SNS,HFIR"</formula1>
     </dataValidation>
     <dataValidation sqref="R2:R1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"operational,maintenance,offline,commissioning"</formula1>
@@ -2288,103 +2627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>q_range_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>q_range_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>detector_distance_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>detector_distance_max</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>sample_changer_capacity</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>temperature_control_range</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>instrument_code</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>installation_date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>current_status</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="K2:K1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"operational,maintenance,offline,commissioning"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2972,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3066,7 +3309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3137,7 +3380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3208,92 +3451,6 @@
         </is>
       </c>
       <c r="L1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dimensions_z</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>voxel_size</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>reconstruction_method</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>acquisition_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>dimensions_x</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>dimensions_y</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3455,6 +3612,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dimensions_z</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>voxel_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reconstruction_method</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>acquisition_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dimensions_x</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dimensions_y</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3716,7 +3959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3822,7 +4065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3948,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4064,7 +4307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4198,7 +4441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4229,7 +4472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4275,47 +4518,6 @@
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sequences</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>modifications</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -4343,17 +4545,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>sequences</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>modifications</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>additives</t>
+          <t>ligands</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -4470,6 +4672,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>components</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>additives</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4662,7 +4905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4758,7 +5001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4914,7 +5157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4965,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5021,7 +5264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5150,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5336,7 +5579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5372,72 +5615,6 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>patch_size</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>binning</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dose_weighting</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>bfactor_dose_weighting</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>anisotropic_correction</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>frame_grouping</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>output_binning</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>drift_total</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -5601,7 +5778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5612,35 +5789,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>defocus_search_min</t>
+          <t>patch_size</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>defocus_search_max</t>
+          <t>binning</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>defocus_step</t>
+          <t>dose_weighting</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>amplitude_contrast</t>
+          <t>bfactor_dose_weighting</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>cs_used_in_estimation</t>
+          <t>anisotropic_correction</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>voltage_used_in_estimation</t>
+          <t>frame_grouping</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
+        <is>
+          <t>output_binning</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>drift_total</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -5668,32 +5855,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>picking_method</t>
+          <t>defocus_search_min</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>box_size</t>
+          <t>defocus_search_max</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>threshold</t>
+          <t>defocus_step</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>power_score</t>
+          <t>amplitude_contrast</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ncc_score</t>
+          <t>cs_used_in_estimation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>model_file</t>
+          <t>voltage_used_in_estimation</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -5708,6 +5895,62 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>picking_method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>power_score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ncc_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>model_file</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5778,7 +6021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -2633,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2859,15 +2859,85 @@
       </c>
       <c r="AR1" t="inlineStr">
         <is>
+          <t>transmission</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>flux</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>flux_end</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>slit_gap_horizontal</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>slit_gap_vertical</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>undulator_gap</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>synchrotron_mode</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>end_time</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>resolution_at_corner</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>ispyb_data_collection_id</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>ispyb_session_id</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2895,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3106,100 +3176,145 @@
       </c>
       <c r="AO1" t="inlineStr">
         <is>
+          <t>anomalous_completeness</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>anomalous_multiplicity</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>cc_anomalous</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>r_anomalous</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>sig_anomalous</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>n_total_observations</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>n_total_unique</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>ispyb_auto_proc_program_id</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>ispyb_auto_proc_scaling_id</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
           <t>rwork</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>rfree</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>rmsd_bonds</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>rmsd_angles</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>ramachandran_favored</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>ramachandran_outliers</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>clashscore</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>processing_notes</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>compute_resources</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>started_at</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>completed_at</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>motion_correction_params</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>ctf_estimation_params</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>particle_picking_params</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>refinement_params</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>fsc_curve</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>output_files</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>description</t>
         </is>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -5900,7 +5900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5936,10 +5936,20 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>model_file</t>
+          <t>model_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
+        <is>
+          <t>model_file_path</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>model_source</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>description</t>
         </is>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -2608,7 +2608,7 @@
   </sheetData>
   <dataValidations count="5">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry"</formula1>
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
@@ -2946,7 +2946,7 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry"</formula1>
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"x_ray_diffraction,neutron_diffraction,electron_diffraction,fiber_diffraction"</formula1>

--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -7,60 +7,65 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ProteinAnnotation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FunctionalSite" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="StructuralFeature" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="LigandInteraction" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ProteinProteinInteraction" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MutationEffect" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="BiophysicalProperty" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ConformationalEnsemble" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ConformationalState" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="PostTranslationalModification" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="DatabaseCrossReference" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EvolutionaryConservation" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="AggregatedProteinView" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="MeasurementConditions" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Dataset" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Study" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Sample" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ProteinConstruct" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="SamplePreparation" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Instrument" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="CryoEMInstrument" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="XRayInstrument" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="SAXSInstrument" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="BeamlineInstrument" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="ExperimentRun" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="WorkflowRun" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="DataFile" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Image" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Image2D" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Image3D" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Movie" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Micrograph" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="FTIRImage" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="FluorescenceImage" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="OpticalImage" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="XRFImage" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="ImageFeature" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="OntologyTerm" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="MolecularComposition" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="BufferComposition" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="StorageConditions" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="CryoEMPreparation" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="CrystallizationConditions" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="XRayPreparation" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="SAXSPreparation" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="ExperimentalConditions" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="DataCollectionStrategy" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="QualityMetrics" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="ComputeResources" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="MotionCorrectionParameters" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="CTFEstimationParameters" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="ParticlePickingParameters" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="RefinementParameters" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="FSCCurve" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Any" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Attribute" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="QuantityValue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TextValue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DateTimeValue" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ProteinAnnotation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FunctionalSite" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="StructuralFeature" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="LigandInteraction" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ProteinProteinInteraction" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MutationEffect" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="BiophysicalProperty" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ConformationalEnsemble" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ConformationalState" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="PostTranslationalModification" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="DatabaseCrossReference" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="EvolutionaryConservation" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="AggregatedProteinView" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MeasurementConditions" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Dataset" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Study" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Sample" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="ProteinConstruct" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="SamplePreparation" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Instrument" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="CryoEMInstrument" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="XRayInstrument" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="SAXSInstrument" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="BeamlineInstrument" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="ExperimentRun" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="WorkflowRun" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="DataFile" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Image" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Image2D" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Image3D" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Movie" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Micrograph" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="FTIRImage" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="FluorescenceImage" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="OpticalImage" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="XRFImage" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="ImageFeature" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="OntologyTerm" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="MolecularComposition" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="BufferComposition" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="StorageConditions" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="CryoEMPreparation" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="CrystallizationConditions" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="XRayPreparation" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="SAXSPreparation" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="ExperimentalConditions" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="DataCollectionStrategy" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="QualityMetrics" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="ComputeResources" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="MotionCorrectionParameters" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="CTFEstimationParameters" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="ParticlePickingParameters" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="RefinementParameters" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="FSCCurve" sheetId="59" state="visible" r:id="rId59"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +471,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,73 +500,129 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>partner_protein_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>partner_chain_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>interface_residues</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>partner_interface_residues</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>interface_area</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>binding_energy</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dissociation_constant</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>complex_stability</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>biological_assembly</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>interaction_evidence</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>protein_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>pdb_entry</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>chain_id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>residue_range</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>confidence_score</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>evidence_type</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>evidence_code</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>source_database</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>annotation_method</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>publication_ids</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"stable,transient,weak,strong,obligate,non_obligate"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,homology,coexpression,colocalization,genetic,physical,functional"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>
   </dataValidations>
@@ -551,7 +630,356 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>mutation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mutation_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>effect_on_stability</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>delta_delta_g</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>effect_on_function</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>functional_impact_description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>disease_association</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>omim_id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>clinical_significance</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>allele_frequency</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"missense,nonsense,frameshift,deletion,insertion,duplication,substitution"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"stabilizing,destabilizing,neutral,highly_stabilizing,highly_destabilizing"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"loss_of_function,gain_of_function,altered_function,no_effect,partial_loss,enhanced_function"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"pathogenic,likely_pathogenic,benign,likely_benign,uncertain_significance"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>property_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>measurement_conditions</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>experimental_method</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"melting_temperature,stability,folding_rate,unfolding_rate,aggregation_propensity,solubility,hydrophobicity,isoelectric_point,extinction_coefficient,molecular_weight,diffusion_coefficient,sedimentation_coefficient,radius_of_gyration,hydrodynamic_radius"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"differential_scanning_calorimetry,isothermal_titration_calorimetry,circular_dichroism,fluorescence_spectroscopy,surface_plasmon_resonance,dynamic_light_scattering,analytical_ultracentrifugation,nuclear_magnetic_resonance,mass_spectrometry"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>conformational_states</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>clustering_method</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>rmsd_threshold</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>transition_pathways</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>energy_landscape</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>principal_motions</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>state_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>state_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pdb_entries</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>free_energy</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>rmsd_from_reference</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>characteristic_features</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -682,7 +1110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -733,7 +1161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,7 +1287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -970,7 +1398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,7 +1454,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1077,7 +1536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,7 +1612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +1952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1750,138 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>site_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>site_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>residues</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ligand_interactions</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>conservation_score</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>functional_importance</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>go_terms</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ec_number</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>protein_id</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pdb_entry</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>chain_id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>residue_range</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>confidence_score</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>evidence_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>evidence_code</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>source_database</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>annotation_method</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>publication_ids</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1973,7 +2301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2204,7 +2532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2362,7 +2690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2484,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2627,7 +2955,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>maximum_numeric_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimum_numeric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>numeric_value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>unit_cv_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>raw_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2959,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3330,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3424,7 +3808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3495,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3576,152 +3960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>feature_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>secondary_structure</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>solvent_accessibility</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>backbone_flexibility</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>disorder_probability</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>conformational_state</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>structural_motif</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>domain_assignment</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>domain_id</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>protein_id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>pdb_entry</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>chain_id</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>residue_range</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>confidence_score</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>evidence_type</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>evidence_code</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>source_database</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>annotation_method</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>publication_ids</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"alpha_helix,beta_sheet,beta_strand,turn,coil,disordered_region,transmembrane_helix,signal_peptide,transit_peptide,domain,repeat,zinc_finger,zinc_binding,coiled_coil,motif,cavity,channel,pore,hinge,linker"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"helix,sheet,turn,coil,helix_310,helix_pi,bend,bridge"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"open,closed,intermediate,active,inactive,apo,holo,substrate_bound,product_bound,inhibitor_bound,partially_open,partially_closed,disordered"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3807,7 +4046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3963,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4074,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4180,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4306,7 +4545,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value_cv_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>raw_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4422,7 +4702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4556,7 +4836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4587,7 +4867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4643,7 +4923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4684,104 +4964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ligand_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ligand_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligand_smiles</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>binding_affinity</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>binding_affinity_type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>binding_affinity_unit</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>interaction_type</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>binding_site_residues</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_cofactor</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_drug_like</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>druggability_score</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>interaction_distance</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"kd,ki,ic50,ec50,ka,km"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"molar,millimolar,micromolar,nanomolar,picomolar"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"covalent,hydrogen_bond,ionic,van_der_waals,hydrophobic,aromatic,pi_stacking,cation_pi,metal_coordination,disulfide"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4822,7 +5005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4873,7 +5056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5020,7 +5203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5116,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5272,7 +5455,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>raw_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5313,636 +5532,6 @@
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>humidity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>pressure</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>atmosphere</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>beam_energy</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collection_mode</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>total_frames</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>frame_rate</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>total_dose</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dose_per_frame</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>wavelength_a</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pixel_size_calibrated</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector_distance_mm</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>beam_center_x_px</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>beam_center_y_px</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>beam_size_um</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>flux_photons_per_s</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>transmission_percent</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>attenuator</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>temperature_k</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>oscillation_per_image_deg</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>total_rotation_deg</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>strategy_notes</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"counting,super_resolution,continuous,oscillation,still,batch,sec_saxs,single_particle"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"counting,integrating,super_resolution,linear,correlated_double_sampling"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AG1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>resolution</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>resolution_high_shell_a</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>resolution_low_a</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>completeness</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>completeness_high_res_shell_percent</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>signal_to_noise</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>mean_i_over_sigma_i</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>space_group</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>unit_cell_a</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>unit_cell_b</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>unit_cell_c</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>unit_cell_alpha</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>unit_cell_beta</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>unit_cell_gamma</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>multiplicity</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cc_half</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>r_merge</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>r_pim</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>wilson_b_factor_a2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>anomalous_used</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>anom_corr</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>anom_sig_ano</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>r_work</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>r_free</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>ramachandran_favored_percent</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>ramachandran_outliers_percent</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>clashscore</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>molprobity_score</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>average_b_factor_a2</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>i_zero</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>rg</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>r_factor</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>cpu_hours</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>gpu_hours</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>memory_gb</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>storage_gb</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>partner_protein_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>partner_chain_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>interface_residues</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>partner_interface_residues</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>interface_area</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>binding_energy</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>dissociation_constant</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>complex_stability</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>biological_assembly</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>interaction_evidence</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>protein_id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>pdb_entry</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>chain_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>residue_range</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>confidence_score</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>evidence_type</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>evidence_code</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>source_database</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>annotation_method</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>publication_ids</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"stable,transient,weak,strong,obligate,non_obligate"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"experimental,predicted,homology,coexpression,colocalization,genetic,physical,functional"</formula1>
-    </dataValidation>
-    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>patch_size</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>binning</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dose_weighting</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>bfactor_dose_weighting</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>anisotropic_correction</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>frame_grouping</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>output_binning</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>drift_total</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -5970,32 +5559,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>defocus_search_min</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>defocus_search_max</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>defocus_step</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>amplitude_contrast</t>
+          <t>atmosphere</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>cs_used_in_estimation</t>
+          <t>beam_energy</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>voltage_used_in_estimation</t>
+          <t>exposure_time</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -6010,6 +5599,367 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collection_mode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>total_frames</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>frame_rate</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>total_dose</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dose_per_frame</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>wavelength_a</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pixel_size_calibrated</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector_distance_mm</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>beam_center_x_px</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>beam_center_y_px</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>beam_size_um</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>flux_photons_per_s</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>transmission_percent</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>attenuator</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>temperature_k</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>oscillation_per_image_deg</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>total_rotation_deg</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>strategy_notes</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"counting,super_resolution,continuous,oscillation,still,batch,sec_saxs,single_particle"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"counting,integrating,super_resolution,linear,correlated_double_sampling"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>resolution_high_shell_a</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution_low_a</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>completeness</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>completeness_high_res_shell_percent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>signal_to_noise</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>mean_i_over_sigma_i</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>space_group</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>unit_cell_a</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>unit_cell_b</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>unit_cell_c</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>unit_cell_alpha</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>unit_cell_beta</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>unit_cell_gamma</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>multiplicity</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cc_half</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>r_merge</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>r_pim</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>wilson_b_factor_a2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>anomalous_used</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>anom_corr</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>anom_sig_ano</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>r_work</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>r_free</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>ramachandran_favored_percent</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>ramachandran_outliers_percent</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>clashscore</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>molprobity_score</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>average_b_factor_a2</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>i_zero</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>r_factor</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cpu_hours</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gpu_hours</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>memory_gb</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>storage_gb</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6026,42 +5976,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>picking_method</t>
+          <t>patch_size</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>box_size</t>
+          <t>binning</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>threshold</t>
+          <t>dose_weighting</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>power_score</t>
+          <t>bfactor_dose_weighting</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ncc_score</t>
+          <t>anisotropic_correction</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>model_name</t>
+          <t>frame_grouping</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>model_file_path</t>
+          <t>output_binning</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>model_source</t>
+          <t>drift_total</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -6075,7 +6025,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>defocus_search_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus_search_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>defocus_step</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amplitude_contrast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>cs_used_in_estimation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>voltage_used_in_estimation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6092,6 +6098,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>picking_method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>box_size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>power_score</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ncc_score</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>model_file_path</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>model_source</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>symmetry</t>
         </is>
       </c>
@@ -6146,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6188,7 +6260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6199,135 +6271,73 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>mutation</t>
+          <t>protein_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>mutation_type</t>
+          <t>pdb_entry</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>effect_on_stability</t>
+          <t>chain_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>delta_delta_g</t>
+          <t>residue_range</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>effect_on_function</t>
+          <t>confidence_score</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>functional_impact_description</t>
+          <t>evidence_type</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>disease_association</t>
+          <t>evidence_code</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>omim_id</t>
+          <t>source_database</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>clinical_significance</t>
+          <t>annotation_method</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>allele_frequency</t>
+          <t>publication_ids</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>protein_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>pdb_entry</t>
+          <t>title</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
-        <is>
-          <t>chain_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>residue_range</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>confidence_score</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>evidence_type</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>evidence_code</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>source_database</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>annotation_method</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>publication_ids</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"missense,nonsense,frameshift,deletion,insertion,duplication,substitution"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"stabilizing,destabilizing,neutral,highly_stabilizing,highly_destabilizing"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"loss_of_function,gain_of_function,altered_function,no_effect,partial_loss,enhanced_function"</formula1>
-    </dataValidation>
-    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"pathogenic,likely_pathogenic,benign,likely_benign,uncertain_significance"</formula1>
-    </dataValidation>
-    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="1">
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6341,7 +6351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6352,47 +6362,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>property_type</t>
+          <t>site_type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>site_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>residues</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>ligand_interactions</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>measurement_conditions</t>
+          <t>conservation_score</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>experimental_method</t>
+          <t>functional_importance</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
+        <is>
+          <t>go_terms</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ec_number</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>protein_id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"melting_temperature,stability,folding_rate,unfolding_rate,aggregation_propensity,solubility,hydrophobicity,isoelectric_point,extinction_coefficient,molecular_weight,diffusion_coefficient,sedimentation_coefficient,radius_of_gyration,hydrodynamic_radius"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"differential_scanning_calorimetry,isothermal_titration_calorimetry,circular_dichroism,fluorescence_spectroscopy,surface_plasmon_resonance,dynamic_light_scattering,analytical_ultracentrifugation,nuclear_magnetic_resonance,mass_spectrometry"</formula1>
+  <dataValidations count="1">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6405,7 +6482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6416,56 +6493,130 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>feature_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>secondary_structure</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>solvent_accessibility</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>backbone_flexibility</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>disorder_probability</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>conformational_state</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>structural_motif</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>domain_assignment</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>domain_id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>protein_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>conformational_states</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>clustering_method</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>rmsd_threshold</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>transition_pathways</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>energy_landscape</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>principal_motions</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pdb_entry</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>chain_id</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>residue_range</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>confidence_score</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>evidence_type</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>evidence_code</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>source_database</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>annotation_method</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>publication_ids</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"alpha_helix,beta_sheet,beta_strand,turn,coil,disordered_region,transmembrane_helix,signal_peptide,transit_peptide,domain,repeat,zinc_finger,zinc_binding,coiled_coil,motif,cavity,channel,pore,hinge,linker"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"helix,sheet,turn,coil,helix_310,helix_pi,bend,bridge"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"open,closed,intermediate,active,inactive,apo,holo,substrate_bound,product_bound,inhibitor_bound,partially_open,partially_closed,disordered"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6476,7 +6627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6487,46 +6638,82 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>state_id</t>
+          <t>ligand_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>state_name</t>
+          <t>ligand_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>pdb_entries</t>
+          <t>ligand_smiles</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>binding_affinity</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>free_energy</t>
+          <t>binding_affinity_type</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>rmsd_from_reference</t>
+          <t>binding_affinity_unit</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>characteristic_features</t>
+          <t>interaction_type</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
+        <is>
+          <t>binding_site_residues</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_cofactor</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_drug_like</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>druggability_score</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>interaction_distance</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"kd,ki,ic50,ec50,ka,km"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"molar,millimolar,micromolar,nanomolar,picomolar"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"covalent,hydrogen_bond,ionic,van_der_waals,hydrophobic,aromatic,pi_stacking,cation_pi,metal_coordination,disulfide"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/assets/excel/lambda-ber-schema.xlsx
+++ b/assets/excel/lambda-ber-schema.xlsx
@@ -1618,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1654,157 +1654,149 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>concentration_unit</t>
+          <t>buffer_composition</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>buffer_composition</t>
+          <t>preparation_method</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>preparation_method</t>
+          <t>storage_conditions</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>storage_conditions</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>cell_type</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>cell_type</t>
+          <t>parent_sample_id</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>parent_sample_id</t>
+          <t>purity_percentage</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>purity_percentage</t>
+          <t>quality_metrics</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>quality_metrics</t>
+          <t>functional_sites</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>functional_sites</t>
+          <t>structural_features</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>structural_features</t>
+          <t>protein_interactions</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>protein_interactions</t>
+          <t>ligand_interactions</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>ligand_interactions</t>
+          <t>mutation_effects</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>mutation_effects</t>
+          <t>ptm_annotations</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>ptm_annotations</t>
+          <t>biophysical_properties</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>biophysical_properties</t>
+          <t>evolutionary_conservation</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>evolutionary_conservation</t>
+          <t>conformational_ensemble</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>conformational_ensemble</t>
+          <t>database_cross_references</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>database_cross_references</t>
+          <t>protein_name</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>protein_name</t>
+          <t>construct</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>construct</t>
+          <t>tag</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>tag</t>
+          <t>mutations</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>mutations</t>
+          <t>expression_system</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>expression_system</t>
+          <t>ligand</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>ligand</t>
+          <t>id</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"protein,nucleic_acid,complex,membrane_protein,virus,organelle"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"mg_per_ml,micromolar,millimolar,nanomolar"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5011,7 +5003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5027,31 +5019,21 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>temperature_unit</t>
+          <t>duration</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>atmosphere</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>atmosphere</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"celsius,kelvin,fahrenheit"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
